--- a/data/trans_orig/P21C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>70307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63065</v>
+        <v>63260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75148</v>
+        <v>75771</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8726443614776601</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7827554096816183</v>
+        <v>0.7851694262371406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.932733371764599</v>
+        <v>0.9404606934487648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -765,19 +765,19 @@
         <v>188478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178278</v>
+        <v>179985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195112</v>
+        <v>195932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9064030315273346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8573492770577805</v>
+        <v>0.8655595072414952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9383047699606317</v>
+        <v>0.9422483360985503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>249</v>
@@ -786,19 +786,19 @@
         <v>258786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246905</v>
+        <v>248006</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268054</v>
+        <v>267785</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8969757207360139</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8557963278881179</v>
+        <v>0.8596142127396891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.929102581885536</v>
+        <v>0.9281700381220112</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10261</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5420</v>
+        <v>4797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17503</v>
+        <v>17308</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1273556385223399</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06726662823540099</v>
+        <v>0.05953930655123511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2172445903183819</v>
+        <v>0.2148305737628591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -836,19 +836,19 @@
         <v>19463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12829</v>
+        <v>12009</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29663</v>
+        <v>27956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09359696847266537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06169523003936832</v>
+        <v>0.05775166390144967</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1426507229422199</v>
+        <v>0.1344404927585048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -857,19 +857,19 @@
         <v>29723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20455</v>
+        <v>20724</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41604</v>
+        <v>40503</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1030242792639861</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07089741811446447</v>
+        <v>0.07182996187798879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1442036721118836</v>
+        <v>0.140385787260311</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>102734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>94030</v>
+        <v>94513</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108602</v>
+        <v>109155</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8740673073510661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8000164113240315</v>
+        <v>0.804124399935745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9239960630236107</v>
+        <v>0.9287018407092578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -982,19 +982,19 @@
         <v>124988</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113360</v>
+        <v>114515</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132565</v>
+        <v>133667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.827284308258975</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7503193942959803</v>
+        <v>0.7579688320967407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8774375633969462</v>
+        <v>0.8847300989369704</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>223</v>
@@ -1003,19 +1003,19 @@
         <v>227720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>215256</v>
+        <v>213472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>238879</v>
+        <v>238368</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8477545017890976</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8013515842879837</v>
+        <v>0.7947109004348638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8892951909889322</v>
+        <v>0.8873920121267389</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>14801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8933</v>
+        <v>8380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23505</v>
+        <v>23022</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.125932692648934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07600393697638921</v>
+        <v>0.07129815929074217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1999835886759685</v>
+        <v>0.1958756000642535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -1053,19 +1053,19 @@
         <v>26094</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18517</v>
+        <v>17415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37722</v>
+        <v>36567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.172715691741025</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1225624366030543</v>
+        <v>0.1152699010630296</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2496806057040199</v>
+        <v>0.2420311679032593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1074,19 +1074,19 @@
         <v>40896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29737</v>
+        <v>30248</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53360</v>
+        <v>55144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1522454982109024</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1107048090110677</v>
+        <v>0.1126079878732611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1986484157120164</v>
+        <v>0.2052890995651367</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>111752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103355</v>
+        <v>103649</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116949</v>
+        <v>117787</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9087592208616007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8404720587242742</v>
+        <v>0.8428636227336451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9510186183108871</v>
+        <v>0.9578385747304072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -1199,19 +1199,19 @@
         <v>139683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>131703</v>
+        <v>131036</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145931</v>
+        <v>145751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9040518380893454</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8524053327532816</v>
+        <v>0.8480838588590791</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.944490236379249</v>
+        <v>0.9433201100394728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>246</v>
@@ -1220,19 +1220,19 @@
         <v>251435</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>239856</v>
+        <v>239878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>260263</v>
+        <v>260556</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9061380328938039</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8644084130768841</v>
+        <v>0.8644859305806788</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9379533749752736</v>
+        <v>0.9390090205999116</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>11220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6023</v>
+        <v>5185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19617</v>
+        <v>19323</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09124077913839934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04898138168911281</v>
+        <v>0.04216142526959286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1595279412757258</v>
+        <v>0.1571363772663549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1270,19 +1270,19 @@
         <v>14825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8577</v>
+        <v>8757</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22805</v>
+        <v>23472</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09594816191065461</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05550976362075095</v>
+        <v>0.05667988996052721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1475946672467185</v>
+        <v>0.1519161411409209</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -1291,19 +1291,19 @@
         <v>26045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17217</v>
+        <v>16924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37624</v>
+        <v>37602</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09386196710619615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06204662502472639</v>
+        <v>0.06099097940008869</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.135591586923116</v>
+        <v>0.1355140694193214</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>50149</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43177</v>
+        <v>43020</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54636</v>
+        <v>55167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8485488530581125</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.730578526780489</v>
+        <v>0.7279245742422631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9244709939076021</v>
+        <v>0.9334590641195496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1416,19 +1416,19 @@
         <v>33211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26795</v>
+        <v>27922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36980</v>
+        <v>37031</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8530243946789364</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6882214665696877</v>
+        <v>0.7171792976879003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.949833576117751</v>
+        <v>0.951147638551454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1437,19 +1437,19 @@
         <v>83360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74278</v>
+        <v>74615</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89771</v>
+        <v>89286</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8503262854883541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7576830058613373</v>
+        <v>0.7611170428601607</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9157252227637148</v>
+        <v>0.9107790402643225</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>8951</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4464</v>
+        <v>3933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15923</v>
+        <v>16080</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1514511469418875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07552900609239795</v>
+        <v>0.0665409358804504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2694214732195112</v>
+        <v>0.2720754257577364</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1487,19 +1487,19 @@
         <v>5722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1953</v>
+        <v>1902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12138</v>
+        <v>11011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1469756053210636</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05016642388224898</v>
+        <v>0.04885236144854598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3117785334303122</v>
+        <v>0.2828207023120997</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1508,19 +1508,19 @@
         <v>14673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8262</v>
+        <v>8747</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23755</v>
+        <v>23418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1496737145116459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08427477723628525</v>
+        <v>0.08922095973567741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2423169941386628</v>
+        <v>0.2388829571398394</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>334942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>320675</v>
+        <v>320869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>346817</v>
+        <v>346379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8810203293147403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8434931307927652</v>
+        <v>0.8440031049664133</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.912256599773196</v>
+        <v>0.9111039439952416</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>469</v>
@@ -1633,19 +1633,19 @@
         <v>486360</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>469513</v>
+        <v>468305</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>500343</v>
+        <v>501234</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8803472667551561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8498519178290642</v>
+        <v>0.8476651979296009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.905657809542277</v>
+        <v>0.9072706505709458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>798</v>
@@ -1654,19 +1654,19 @@
         <v>821301</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>800131</v>
+        <v>800465</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>839936</v>
+        <v>840137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8806216296520509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8579227267207667</v>
+        <v>0.8582806548488059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9006023267614202</v>
+        <v>0.9008176948836355</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>45233</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33358</v>
+        <v>33796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59500</v>
+        <v>59306</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1189796706852597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08774340022680395</v>
+        <v>0.0888960560047584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1565068692072347</v>
+        <v>0.1559968950335867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -1704,19 +1704,19 @@
         <v>66104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52121</v>
+        <v>51230</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82951</v>
+        <v>84159</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.119652733244844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09434219045772292</v>
+        <v>0.09272934942905418</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1501480821709358</v>
+        <v>0.1523348020703989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -1725,19 +1725,19 @@
         <v>111337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>92702</v>
+        <v>92501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>132507</v>
+        <v>132173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1193783703479491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09939767323857968</v>
+        <v>0.09918230511636449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1420772732792328</v>
+        <v>0.1417193451511944</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>110150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99441</v>
+        <v>99973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118576</v>
+        <v>118120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.811821532508047</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7328946195007153</v>
+        <v>0.7368154177964411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8739158726520566</v>
+        <v>0.8705617553976036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -2090,19 +2090,19 @@
         <v>194428</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181124</v>
+        <v>181487</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>205472</v>
+        <v>206038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8074171256158529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.752168978274136</v>
+        <v>0.7536793275362061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8532836236781128</v>
+        <v>0.8556321172650607</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>287</v>
@@ -2111,19 +2111,19 @@
         <v>304578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>289187</v>
+        <v>288095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>319534</v>
+        <v>318723</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8090044477665668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7681230408686915</v>
+        <v>0.7652221078903031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8487302231755376</v>
+        <v>0.8465767346768126</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>25533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17107</v>
+        <v>17563</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36242</v>
+        <v>35710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.188178467491953</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1260841273479433</v>
+        <v>0.129438244602396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2671053804992847</v>
+        <v>0.2631845822035589</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -2161,19 +2161,19 @@
         <v>46374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35330</v>
+        <v>34764</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59678</v>
+        <v>59315</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1925828743841471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1467163763218872</v>
+        <v>0.1443678827349393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2478310217258641</v>
+        <v>0.2463206724637941</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -2182,19 +2182,19 @@
         <v>71907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56951</v>
+        <v>57762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87298</v>
+        <v>88390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1909955522334333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1512697768244623</v>
+        <v>0.1534232653231873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2318769591313084</v>
+        <v>0.2347778921096968</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>100172</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89953</v>
+        <v>90639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107833</v>
+        <v>107224</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8509246368832377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7641208460115773</v>
+        <v>0.7699471899918796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9160047553731928</v>
+        <v>0.9108299038912665</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -2307,19 +2307,19 @@
         <v>158968</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148303</v>
+        <v>149246</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166116</v>
+        <v>166700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8775082868462184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8186384641781477</v>
+        <v>0.8238468944706001</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.916968785969421</v>
+        <v>0.9201936297365503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>240</v>
@@ -2328,19 +2328,19 @@
         <v>259139</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>244706</v>
+        <v>246800</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>270901</v>
+        <v>271198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8670376386317463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8187474964083906</v>
+        <v>0.8257528064512473</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9063887954016918</v>
+        <v>0.9073855944499868</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>17549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9888</v>
+        <v>10497</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27768</v>
+        <v>27082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1490753631167623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08399524462680723</v>
+        <v>0.08917009610873351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2358791539884229</v>
+        <v>0.2300528100081204</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -2378,19 +2378,19 @@
         <v>22190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15042</v>
+        <v>14458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32855</v>
+        <v>31912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1224917131537815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08303121403057882</v>
+        <v>0.07980637026344975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1813615358218519</v>
+        <v>0.1761531055293999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -2399,19 +2399,19 @@
         <v>39740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27978</v>
+        <v>27681</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54173</v>
+        <v>52079</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1329623613682537</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09361120459830817</v>
+        <v>0.09261440555001306</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1812525035916093</v>
+        <v>0.1742471935487526</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>92727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83921</v>
+        <v>84770</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99102</v>
+        <v>98851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8702730589962491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7876329011704624</v>
+        <v>0.7955926248598982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9301086257461719</v>
+        <v>0.9277525721278873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -2524,19 +2524,19 @@
         <v>104733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95210</v>
+        <v>95796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111192</v>
+        <v>110667</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8810948961719984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8009779524001742</v>
+        <v>0.8059127934356556</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9354297133132897</v>
+        <v>0.9310124523116656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>185</v>
@@ -2545,19 +2545,19 @@
         <v>197460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187257</v>
+        <v>185830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>207263</v>
+        <v>205851</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8759796542224595</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8307153316674177</v>
+        <v>0.8243849674133108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9194708377380487</v>
+        <v>0.9132036268500943</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>13822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7447</v>
+        <v>7698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22628</v>
+        <v>21779</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1297269410037509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06989137425382795</v>
+        <v>0.07224742787211245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.212367098829537</v>
+        <v>0.2044073751401014</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -2595,19 +2595,19 @@
         <v>14134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7675</v>
+        <v>8200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23657</v>
+        <v>23071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1189051038280016</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0645702866867103</v>
+        <v>0.06898754768833457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1990220475998261</v>
+        <v>0.1940872065643445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -2616,19 +2616,19 @@
         <v>27956</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18153</v>
+        <v>19565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38159</v>
+        <v>39586</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1240203457775405</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08052916226195138</v>
+        <v>0.08679637314990572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1692846683325826</v>
+        <v>0.1756150325866891</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>44386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37425</v>
+        <v>37329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48627</v>
+        <v>48661</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8478239851575765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7148495223596293</v>
+        <v>0.7130180269907743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9288286814585048</v>
+        <v>0.9294840083809136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -2741,19 +2741,19 @@
         <v>61402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56236</v>
+        <v>56453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63497</v>
+        <v>63511</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9525808443469835</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8724297799505645</v>
+        <v>0.8757893181650918</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9850820119548521</v>
+        <v>0.9852861168070561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -2762,19 +2762,19 @@
         <v>105788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98295</v>
+        <v>97209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111792</v>
+        <v>111138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9056308336648055</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8414891864801793</v>
+        <v>0.8321872072672518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9570312151717526</v>
+        <v>0.9514351767892246</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>7967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3726</v>
+        <v>3692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14928</v>
+        <v>15024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1521760148424235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07117131854149511</v>
+        <v>0.07051599161908653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2851504776403702</v>
+        <v>0.2869819730092257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -2812,19 +2812,19 @@
         <v>3057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8223</v>
+        <v>8006</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04741915565301651</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01491798804514788</v>
+        <v>0.01471388319294397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1275702200494357</v>
+        <v>0.1242106818349086</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -2833,19 +2833,19 @@
         <v>11023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5019</v>
+        <v>5673</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18516</v>
+        <v>19602</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09436916633519456</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0429687848282473</v>
+        <v>0.04856482321077534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1585108135198201</v>
+        <v>0.1678127927327482</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>347435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>331929</v>
+        <v>330158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>363243</v>
+        <v>361789</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.842662811213445</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.805054918555001</v>
+        <v>0.800759441564043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8810042078351663</v>
+        <v>0.8774763211208795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>480</v>
@@ -2958,19 +2958,19 @@
         <v>519530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>500219</v>
+        <v>501633</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>536802</v>
+        <v>536004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8583228021098361</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8264189992515589</v>
+        <v>0.8287551035542554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.88685856926141</v>
+        <v>0.8855396187294926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>811</v>
@@ -2979,19 +2979,19 @@
         <v>866965</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>840547</v>
+        <v>843405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>889485</v>
+        <v>890446</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8519777158960028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8260168303308019</v>
+        <v>0.8288248780831513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8741088312198357</v>
+        <v>0.8750525106752161</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>64871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49063</v>
+        <v>50517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80377</v>
+        <v>82148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.157337188786555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1189957921648335</v>
+        <v>0.1225236788791205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.194945081444999</v>
+        <v>0.1992405584359569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -3029,19 +3029,19 @@
         <v>85755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68483</v>
+        <v>69281</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105066</v>
+        <v>103652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1416771978901638</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1131414307385899</v>
+        <v>0.1144603812705072</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.173581000748441</v>
+        <v>0.1712448964457446</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -3050,19 +3050,19 @@
         <v>150626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>128106</v>
+        <v>127145</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177044</v>
+        <v>174186</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1480222841039973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1258911687801642</v>
+        <v>0.124947489324784</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1739831696691982</v>
+        <v>0.1711751219168487</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>88767</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78005</v>
+        <v>78447</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97582</v>
+        <v>97772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7439249977085721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6537387636726599</v>
+        <v>0.6574370222705449</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8178049920953394</v>
+        <v>0.8193952630419652</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -3415,19 +3415,19 @@
         <v>124655</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111683</v>
+        <v>113616</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135273</v>
+        <v>135516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7596584590919787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6806100775575413</v>
+        <v>0.6923901410037242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8243656097328009</v>
+        <v>0.825851346845227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>194</v>
@@ -3436,19 +3436,19 @@
         <v>213421</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>197137</v>
+        <v>198528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226588</v>
+        <v>228790</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7530344267708645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6955765151255451</v>
+        <v>0.7004854910555876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7994919004740778</v>
+        <v>0.8072605271833214</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>30555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21740</v>
+        <v>21550</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41317</v>
+        <v>40875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2560750022914279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1821950079046601</v>
+        <v>0.1806047369580348</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3462612363273399</v>
+        <v>0.3425629777294551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -3486,19 +3486,19 @@
         <v>39438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28820</v>
+        <v>28577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52410</v>
+        <v>50477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2403415409080213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1756343902671989</v>
+        <v>0.1741486531547728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3193899224424586</v>
+        <v>0.3076098589962758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -3507,19 +3507,19 @@
         <v>69994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56827</v>
+        <v>54625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>86278</v>
+        <v>84887</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2469655732291355</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2005080995259222</v>
+        <v>0.1927394728166786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3044234848744549</v>
+        <v>0.2995145089444124</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>70922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62895</v>
+        <v>61094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77481</v>
+        <v>76537</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8331998833934053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7388990671674021</v>
+        <v>0.7177376306467689</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9102555848770664</v>
+        <v>0.8991694616908528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -3632,19 +3632,19 @@
         <v>101246</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93170</v>
+        <v>92132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107586</v>
+        <v>106966</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8862380014845698</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8155457508576717</v>
+        <v>0.8064646013071496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9417337300826168</v>
+        <v>0.936314750400184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>161</v>
@@ -3653,19 +3653,19 @@
         <v>172168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160313</v>
+        <v>160164</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181101</v>
+        <v>180908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8635927023899636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8041281597569807</v>
+        <v>0.8033778767602873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9083965096420729</v>
+        <v>0.9074311195343087</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>14198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7639</v>
+        <v>8583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22225</v>
+        <v>24026</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1668001166065947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08974441512293395</v>
+        <v>0.1008305383091472</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2611009328325981</v>
+        <v>0.282262369353231</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -3703,19 +3703,19 @@
         <v>12996</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6656</v>
+        <v>7276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21072</v>
+        <v>22110</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1137619985154302</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05826626991738315</v>
+        <v>0.06368524959981602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1844542491423288</v>
+        <v>0.1935353986928504</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -3724,19 +3724,19 @@
         <v>27195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18262</v>
+        <v>18455</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39050</v>
+        <v>39199</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1364072976100365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09160349035792767</v>
+        <v>0.09256888046569103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1958718402430194</v>
+        <v>0.1966221232397126</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>51309</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44919</v>
+        <v>45010</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55401</v>
+        <v>55465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8670105179164866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7590420662447244</v>
+        <v>0.7605784988320021</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9361519695362486</v>
+        <v>0.9372426290206374</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -3849,19 +3849,19 @@
         <v>71464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63170</v>
+        <v>62146</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76613</v>
+        <v>75965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8766537004560716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7749085251297015</v>
+        <v>0.7623509158408638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.939814237612383</v>
+        <v>0.9318666346332108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -3870,19 +3870,19 @@
         <v>122774</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113231</v>
+        <v>112221</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130030</v>
+        <v>129363</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8725976841985428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8047782602402059</v>
+        <v>0.7975967482636711</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9241705540847418</v>
+        <v>0.9194330102386493</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>7870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3778</v>
+        <v>3714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14260</v>
+        <v>14169</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1329894820835134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06384803046375162</v>
+        <v>0.06275737097936258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2409579337552772</v>
+        <v>0.2394215011679977</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -3920,19 +3920,19 @@
         <v>10055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4906</v>
+        <v>5554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18349</v>
+        <v>19373</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1233462995439284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06018576238761685</v>
+        <v>0.06813336536678914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2250914748702984</v>
+        <v>0.2376490841591372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -3941,19 +3941,19 @@
         <v>17925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10669</v>
+        <v>11336</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27468</v>
+        <v>28478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1274023158014573</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07582944591525834</v>
+        <v>0.08056698976135064</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1952217397597941</v>
+        <v>0.2024032517363289</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>57219</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50512</v>
+        <v>50466</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60577</v>
+        <v>60584</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9126231240320207</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8056589980765132</v>
+        <v>0.8049261293624297</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9661804384754298</v>
+        <v>0.9663054695630436</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -4066,19 +4066,19 @@
         <v>46025</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39116</v>
+        <v>39251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51167</v>
+        <v>51205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8250999835910694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7012473013670237</v>
+        <v>0.7036629558224324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9172843278429422</v>
+        <v>0.9179738395433069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -4087,19 +4087,19 @@
         <v>103245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94373</v>
+        <v>93329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110069</v>
+        <v>109050</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8714162156743925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7965383950490352</v>
+        <v>0.7877297586086049</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9290178139722657</v>
+        <v>0.9204151723686744</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>5478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12185</v>
+        <v>12231</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08737687596797931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0338195615245702</v>
+        <v>0.03369453043695636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1943410019234875</v>
+        <v>0.1950738706375691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -4137,19 +4137,19 @@
         <v>9756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4614</v>
+        <v>4576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16665</v>
+        <v>16530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1749000164089305</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08271567215705757</v>
+        <v>0.08202616045669295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2987526986329763</v>
+        <v>0.2963370441775675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -4158,19 +4158,19 @@
         <v>15234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8410</v>
+        <v>9429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24106</v>
+        <v>25150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1285837843256074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07098218602773458</v>
+        <v>0.07958482763132559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2034616049509654</v>
+        <v>0.2122702413913952</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>268217</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>251817</v>
+        <v>252927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>282473</v>
+        <v>280997</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8219473006876106</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.771688380770074</v>
+        <v>0.7750911903843594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8656355022299095</v>
+        <v>0.8611107347829554</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -4283,19 +4283,19 @@
         <v>343389</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>327966</v>
+        <v>326630</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>357912</v>
+        <v>358499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8261795454616913</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7890730730100999</v>
+        <v>0.7858569505464499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8611206215860878</v>
+        <v>0.8625331787429049</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>564</v>
@@ -4304,19 +4304,19 @@
         <v>611607</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>589488</v>
+        <v>590700</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>631401</v>
+        <v>633157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8243181613920999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7945063147954441</v>
+        <v>0.7961400103899454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8509957293790772</v>
+        <v>0.853362503054251</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>58102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43846</v>
+        <v>45322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74502</v>
+        <v>73392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1780526993123894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1343644977700904</v>
+        <v>0.1388892652170445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2283116192299259</v>
+        <v>0.2249088096156405</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -4354,19 +4354,19 @@
         <v>72246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57723</v>
+        <v>57136</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87669</v>
+        <v>89005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1738204545383087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1388793784139122</v>
+        <v>0.1374668212570951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2109269269899001</v>
+        <v>0.2141430494535503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>122</v>
@@ -4375,19 +4375,19 @@
         <v>130348</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110554</v>
+        <v>108798</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>152467</v>
+        <v>151255</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1756818386079</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1490042706209225</v>
+        <v>0.1466374969457489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2054936852045559</v>
+        <v>0.2038599896100545</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>90546</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84305</v>
+        <v>85057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94093</v>
+        <v>94056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9344337209771013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8700283505172147</v>
+        <v>0.8777925282714691</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9710375438218594</v>
+        <v>0.9706648217508947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -4740,19 +4740,19 @@
         <v>123344</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111160</v>
+        <v>111588</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130569</v>
+        <v>130905</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8416221118654907</v>
+        <v>0.8416221118654909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.758485392725026</v>
+        <v>0.7614059689304563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8909192723810692</v>
+        <v>0.8932145779038561</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>270</v>
@@ -4761,19 +4761,19 @@
         <v>213889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>199923</v>
+        <v>199481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222484</v>
+        <v>222307</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8785627655515296</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8211955429764142</v>
+        <v>0.8193820313648192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9138702814260696</v>
+        <v>0.913139645383524</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>6353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2806</v>
+        <v>2843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12594</v>
+        <v>11842</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06556627902289876</v>
+        <v>0.06556627902289874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02896245617814059</v>
+        <v>0.02933517824910511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1299716494827853</v>
+        <v>0.1222074717285309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -4811,19 +4811,19 @@
         <v>23211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15986</v>
+        <v>15650</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35395</v>
+        <v>34967</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1583778881345092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1090807276189304</v>
+        <v>0.1067854220961439</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2415146072749736</v>
+        <v>0.2385940310695436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -4832,19 +4832,19 @@
         <v>29564</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20969</v>
+        <v>21146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43530</v>
+        <v>43972</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1214372344484704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08612971857393044</v>
+        <v>0.08686035461647618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1788044570235858</v>
+        <v>0.180617968635181</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>115281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100902</v>
+        <v>103182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122372</v>
+        <v>122667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8646454033250656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7567995865963121</v>
+        <v>0.7739036240307046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.917835041331204</v>
+        <v>0.9200431278629215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>237</v>
@@ -4957,19 +4957,19 @@
         <v>156239</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146246</v>
+        <v>146912</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163801</v>
+        <v>165282</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8319000072696809</v>
+        <v>0.8319000072696806</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7786895735123105</v>
+        <v>0.7822382094442457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8721648056205846</v>
+        <v>0.8800486443470289</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>354</v>
@@ -4978,19 +4978,19 @@
         <v>271520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>255010</v>
+        <v>255266</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>281982</v>
+        <v>281876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8454949572940054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7940834777801374</v>
+        <v>0.7948815069784702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.878073786807628</v>
+        <v>0.8777429796901903</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>18046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10955</v>
+        <v>10660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32425</v>
+        <v>30145</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1353545966749344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08216495866879596</v>
+        <v>0.07995687213707853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2432004134036879</v>
+        <v>0.2260963759692953</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -5028,19 +5028,19 @@
         <v>31571</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24009</v>
+        <v>22528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41564</v>
+        <v>40898</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1680999927303193</v>
+        <v>0.1680999927303192</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1278351943794152</v>
+        <v>0.1199513556529714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2213104264876894</v>
+        <v>0.2177617905557548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -5049,19 +5049,19 @@
         <v>49617</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>39155</v>
+        <v>39261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66127</v>
+        <v>65871</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1545050427059948</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.121926213192372</v>
+        <v>0.1222570203098096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2059165222198628</v>
+        <v>0.2051184930215302</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>124084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116491</v>
+        <v>116723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128501</v>
+        <v>128521</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9396130108033603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8821140900206397</v>
+        <v>0.8838670792776889</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9730600127784289</v>
+        <v>0.9732106679790312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>240</v>
@@ -5174,19 +5174,19 @@
         <v>161645</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153112</v>
+        <v>154127</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166677</v>
+        <v>167198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9126248647426259</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8644478669600213</v>
+        <v>0.8701784675818477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9410334502056604</v>
+        <v>0.9439760791292302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>363</v>
@@ -5195,19 +5195,19 @@
         <v>285729</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>274734</v>
+        <v>275689</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292466</v>
+        <v>292830</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9241521948842307</v>
+        <v>0.9241521948842306</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8885889794377426</v>
+        <v>0.8916774063182709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9459394412225662</v>
+        <v>0.947117236289886</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>7975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3558</v>
+        <v>3538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15568</v>
+        <v>15336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06038698919663973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02693998722157113</v>
+        <v>0.02678933202096872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1178859099793605</v>
+        <v>0.1161329207223107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -5245,19 +5245,19 @@
         <v>15476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10444</v>
+        <v>9923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24009</v>
+        <v>22994</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08737513525737405</v>
+        <v>0.08737513525737406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05896654979433949</v>
+        <v>0.05602392087076969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1355521330399787</v>
+        <v>0.1298215324181524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -5266,19 +5266,19 @@
         <v>23451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16714</v>
+        <v>16350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34446</v>
+        <v>33491</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07584780511576947</v>
+        <v>0.07584780511576945</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05406055877743388</v>
+        <v>0.05288276371011402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1114110205622575</v>
+        <v>0.1083225936817293</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>144451</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132257</v>
+        <v>134117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151838</v>
+        <v>151261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9024604170759918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8262824303021744</v>
+        <v>0.8378995734422814</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9486166869578936</v>
+        <v>0.9450113289937979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -5391,19 +5391,19 @@
         <v>129480</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120014</v>
+        <v>119796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136721</v>
+        <v>136496</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8531436031263472</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7907701377666011</v>
+        <v>0.7893336809749337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9008541426487033</v>
+        <v>0.8993726305911528</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>286</v>
@@ -5412,19 +5412,19 @@
         <v>273930</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>261111</v>
+        <v>260753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>284497</v>
+        <v>284363</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8784578756616299</v>
+        <v>0.8784578756616298</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.837348195520069</v>
+        <v>0.8361987997455772</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9123450640577354</v>
+        <v>0.9119146179562349</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>15612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8225</v>
+        <v>8802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27806</v>
+        <v>25946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09753958292400815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05138331304210658</v>
+        <v>0.05498867100620235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1737175696978257</v>
+        <v>0.1621004265577186</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -5462,19 +5462,19 @@
         <v>22288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15047</v>
+        <v>15272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31754</v>
+        <v>31972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.146856396873653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09914585735129659</v>
+        <v>0.1006273694088471</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2092298622333989</v>
+        <v>0.2106663190250663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -5483,19 +5483,19 @@
         <v>37901</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27334</v>
+        <v>27468</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50720</v>
+        <v>51078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1215421243383701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08765493594226451</v>
+        <v>0.08808538204376538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1626518044799312</v>
+        <v>0.1638012002544228</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>474360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>455276</v>
+        <v>456948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>487194</v>
+        <v>487036</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9081323967429559</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8715974407172933</v>
+        <v>0.8747968849580721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.93270249387628</v>
+        <v>0.9323989450285414</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>816</v>
@@ -5608,19 +5608,19 @@
         <v>570708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>550208</v>
+        <v>553018</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>586162</v>
+        <v>587397</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8604667491680174</v>
+        <v>0.8604667491680176</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8295580168487368</v>
+        <v>0.8337946689380744</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8837671257679763</v>
+        <v>0.8856292747855993</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1273</v>
@@ -5629,19 +5629,19 @@
         <v>1045068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1020549</v>
+        <v>1019252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1065653</v>
+        <v>1066626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8814670640627619</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8607859208261959</v>
+        <v>0.85969263460337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8988290948355858</v>
+        <v>0.8996504302950642</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>47987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35153</v>
+        <v>35311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67071</v>
+        <v>65399</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09186760325704435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06729750612371989</v>
+        <v>0.06760105497145866</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1284025592827066</v>
+        <v>0.1252031150419278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -5679,19 +5679,19 @@
         <v>92546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77092</v>
+        <v>75857</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113046</v>
+        <v>110236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1395332508319825</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1162328742320236</v>
+        <v>0.1143707252144006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1704419831512633</v>
+        <v>0.1662053310619256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>176</v>
@@ -5700,19 +5700,19 @@
         <v>140533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119948</v>
+        <v>118975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>165052</v>
+        <v>166349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1185329359372382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1011709051644141</v>
+        <v>0.100349569704936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.139214079173804</v>
+        <v>0.1403073653966299</v>
       </c>
     </row>
     <row r="18">
